--- a/generated_docs/WR_89734550_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89734550_WeekEnding_072725.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:47 AM</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/26/2025 to 07/27/25</t>
+          <t>07/21/2025 to 07/27/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">

--- a/generated_docs/WR_89734550_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89734550_WeekEnding_072725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I94"/>
+  <dimension ref="A2:I112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:47 AM</t>
+          <t>Report Generated On: 08/18/2025 09:47 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>13036.51</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +969,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1829,7 +1829,7 @@
         </is>
       </c>
       <c r="H48" s="16" t="n">
-        <v>2225.919999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="G53" s="10" t="inlineStr"/>
       <c r="H53" s="11" t="n">
-        <v>217.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="G54" s="13" t="inlineStr"/>
       <c r="H54" s="14" t="n">
-        <v>88.95999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="G56" s="13" t="inlineStr"/>
       <c r="H56" s="14" t="n">
-        <v>77.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B57" s="9" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C57" s="9" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D57" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E57" s="9" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="G57" s="10" t="inlineStr"/>
       <c r="H57" s="11" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="B58" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C58" s="12" t="inlineStr">
@@ -2069,20 +2069,20 @@
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E58" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F58" s="13" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="G58" s="13" t="inlineStr"/>
       <c r="H58" s="14" t="n">
-        <v>1067.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B59" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C59" s="9" t="inlineStr">
@@ -2103,20 +2103,20 @@
       </c>
       <c r="D59" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E59" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F59" s="10" t="n">
-        <v>1</v>
+        <v>456</v>
       </c>
       <c r="G59" s="10" t="inlineStr"/>
       <c r="H59" s="11" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="B60" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C60" s="12" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E60" s="12" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="G60" s="13" t="inlineStr"/>
       <c r="H60" s="14" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B61" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C61" s="9" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="D61" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E61" s="9" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="G61" s="10" t="inlineStr"/>
       <c r="H61" s="11" t="n">
-        <v>79.34999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="B62" s="12" t="inlineStr">
         <is>
-          <t>SWI-15-CO1-100-H</t>
+          <t>EQL-1-4-C-4-C-E1</t>
         </is>
       </c>
       <c r="C62" s="12" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="D62" s="12" t="inlineStr">
         <is>
-          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
+          <t>EQL,1 Phase,#4,Sol,#4,Sol,100a Eq C/O</t>
         </is>
       </c>
       <c r="E62" s="12" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="G62" s="13" t="inlineStr"/>
       <c r="H62" s="14" t="n">
-        <v>80.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2229,17 +2229,17 @@
       </c>
       <c r="B63" s="9" t="inlineStr">
         <is>
-          <t>UGND-TAG-C</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C63" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D63" s="9" t="inlineStr">
         <is>
-          <t>UGND,TAG CABLE MARKER (WHITE),Cable</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E63" s="9" t="inlineStr">
@@ -2248,11 +2248,11 @@
         </is>
       </c>
       <c r="F63" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" s="10" t="inlineStr"/>
       <c r="H63" s="11" t="n">
-        <v>3.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2263,17 +2263,17 @@
       </c>
       <c r="B64" s="12" t="inlineStr">
         <is>
-          <t>UPTM-SO-10-15</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C64" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D64" s="12" t="inlineStr">
         <is>
-          <t>UPTM,Shrink Outdoor,1/0,15kV</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E64" s="12" t="inlineStr">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="G64" s="13" t="inlineStr"/>
       <c r="H64" s="14" t="n">
-        <v>31.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B65" s="9" t="inlineStr">
         <is>
-          <t>URSG-D-168</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C65" s="9" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D65" s="9" t="inlineStr">
         <is>
-          <t>URSG,Distr.1.68in OD</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E65" s="9" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="G65" s="10" t="inlineStr"/>
       <c r="H65" s="11" t="n">
-        <v>14.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B66" s="12" t="inlineStr">
         <is>
-          <t>URSG-D-215</t>
+          <t>GYW-38C</t>
         </is>
       </c>
       <c r="C66" s="12" t="inlineStr">
@@ -2341,20 +2341,20 @@
       </c>
       <c r="D66" s="12" t="inlineStr">
         <is>
-          <t>URSG,Distr,2.15in OD</t>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
         </is>
       </c>
       <c r="E66" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F66" s="13" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G66" s="13" t="inlineStr"/>
       <c r="H66" s="14" t="n">
-        <v>14.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="B67" s="9" t="inlineStr">
         <is>
-          <t>URSR-3-DSO</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C67" s="9" t="inlineStr">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="D67" s="9" t="inlineStr">
         <is>
-          <t>URSR,3in,Dist Stand Off</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E67" s="9" t="inlineStr">
@@ -2384,11 +2384,11 @@
         </is>
       </c>
       <c r="F67" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" s="10" t="inlineStr"/>
       <c r="H67" s="11" t="n">
-        <v>283.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2399,17 +2399,17 @@
       </c>
       <c r="B68" s="12" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>SWI-15-CO1-100-H</t>
         </is>
       </c>
       <c r="C68" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
         </is>
       </c>
       <c r="E68" s="12" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="G68" s="13" t="inlineStr"/>
       <c r="H68" s="14" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B69" s="9" t="inlineStr">
         <is>
-          <t>XFR-10-72-120-1B</t>
+          <t>UGND-TAG-C</t>
         </is>
       </c>
       <c r="C69" s="9" t="inlineStr">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="D69" s="9" t="inlineStr">
         <is>
-          <t>XFR,10KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>UGND,TAG CABLE MARKER (WHITE),Cable</t>
         </is>
       </c>
       <c r="E69" s="9" t="inlineStr">
@@ -2456,52 +2456,52 @@
       </c>
       <c r="G69" s="10" t="inlineStr"/>
       <c r="H69" s="11" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B70" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>UPTM-SO-10-15</t>
         </is>
       </c>
       <c r="C70" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>UPTM,Shrink Outdoor,1/0,15kV</t>
         </is>
       </c>
       <c r="E70" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F70" s="13" t="n">
-        <v>484</v>
+        <v>1</v>
       </c>
       <c r="G70" s="13" t="inlineStr"/>
       <c r="H70" s="14" t="n">
-        <v>1132.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B71" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-D1</t>
+          <t>URSG-D-168</t>
         </is>
       </c>
       <c r="C71" s="9" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="D71" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
+          <t>URSG,Distr.1.68in OD</t>
         </is>
       </c>
       <c r="E71" s="9" t="inlineStr">
@@ -2524,18 +2524,18 @@
       </c>
       <c r="G71" s="10" t="inlineStr"/>
       <c r="H71" s="11" t="n">
-        <v>217.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B72" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>URSG-D-215</t>
         </is>
       </c>
       <c r="C72" s="12" t="inlineStr">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>URSG,Distr,2.15in OD</t>
         </is>
       </c>
       <c r="E72" s="12" t="inlineStr">
@@ -2558,18 +2558,18 @@
       </c>
       <c r="G72" s="13" t="inlineStr"/>
       <c r="H72" s="14" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B73" s="9" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>URSR-3-DSO</t>
         </is>
       </c>
       <c r="C73" s="9" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="D73" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>URSR,3in,Dist Stand Off</t>
         </is>
       </c>
       <c r="E73" s="9" t="inlineStr">
@@ -2592,18 +2592,18 @@
       </c>
       <c r="G73" s="10" t="inlineStr"/>
       <c r="H73" s="11" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B74" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C74" s="12" t="inlineStr">
@@ -2613,41 +2613,41 @@
       </c>
       <c r="D74" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E74" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F74" s="13" t="n">
-        <v>677</v>
+        <v>1</v>
       </c>
       <c r="G74" s="13" t="inlineStr"/>
       <c r="H74" s="14" t="n">
-        <v>1584.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B75" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>XFR-10-72-120-1B</t>
         </is>
       </c>
       <c r="C75" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D75" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>XFR,10KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E75" s="9" t="inlineStr">
@@ -2660,18 +2660,18 @@
       </c>
       <c r="G75" s="10" t="inlineStr"/>
       <c r="H75" s="11" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B76" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C76" s="12" t="inlineStr">
@@ -2681,31 +2681,31 @@
       </c>
       <c r="D76" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E76" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F76" s="13" t="n">
-        <v>1</v>
+        <v>484</v>
       </c>
       <c r="G76" s="13" t="inlineStr"/>
       <c r="H76" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B77" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C77" s="9" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="D77" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E77" s="9" t="inlineStr">
@@ -2724,11 +2724,11 @@
         </is>
       </c>
       <c r="F77" s="10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G77" s="10" t="inlineStr"/>
       <c r="H77" s="11" t="n">
-        <v>79.34999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="B78" s="12" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>ANC-DHM-10-84-D1</t>
         </is>
       </c>
       <c r="C78" s="12" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D78" s="12" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
         </is>
       </c>
       <c r="E78" s="12" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="G78" s="13" t="inlineStr"/>
       <c r="H78" s="14" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2773,17 +2773,17 @@
       </c>
       <c r="B79" s="9" t="inlineStr">
         <is>
-          <t>XFR-10-72-120-1B</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C79" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D79" s="9" t="inlineStr">
         <is>
-          <t>XFR,10KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E79" s="9" t="inlineStr">
@@ -2796,18 +2796,18 @@
       </c>
       <c r="G79" s="10" t="inlineStr"/>
       <c r="H79" s="11" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B80" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C80" s="12" t="inlineStr">
@@ -2817,31 +2817,31 @@
       </c>
       <c r="D80" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E80" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F80" s="13" t="n">
-        <v>310</v>
+        <v>1</v>
       </c>
       <c r="G80" s="13" t="inlineStr"/>
       <c r="H80" s="14" t="n">
-        <v>725.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B81" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C81" s="9" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="D81" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E81" s="9" t="inlineStr">
@@ -2864,18 +2864,18 @@
       </c>
       <c r="G81" s="10" t="inlineStr"/>
       <c r="H81" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B82" s="12" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C82" s="12" t="inlineStr">
@@ -2885,31 +2885,31 @@
       </c>
       <c r="D82" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E82" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F82" s="13" t="n">
-        <v>1</v>
+        <v>677</v>
       </c>
       <c r="G82" s="13" t="inlineStr"/>
       <c r="H82" s="14" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B83" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C83" s="9" t="inlineStr">
@@ -2919,31 +2919,31 @@
       </c>
       <c r="D83" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E83" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F83" s="10" t="n">
-        <v>334</v>
+        <v>1</v>
       </c>
       <c r="G83" s="10" t="inlineStr"/>
       <c r="H83" s="11" t="n">
-        <v>781.5599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B84" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C84" s="12" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="D84" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E84" s="12" t="inlineStr">
@@ -2966,18 +2966,18 @@
       </c>
       <c r="G84" s="13" t="inlineStr"/>
       <c r="H84" s="14" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B85" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C85" s="9" t="inlineStr">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="D85" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E85" s="9" t="inlineStr">
@@ -2996,22 +2996,22 @@
         </is>
       </c>
       <c r="F85" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85" s="10" t="inlineStr"/>
       <c r="H85" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B86" s="12" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C86" s="12" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="D86" s="12" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E86" s="12" t="inlineStr">
@@ -3034,52 +3034,52 @@
       </c>
       <c r="G86" s="13" t="inlineStr"/>
       <c r="H86" s="14" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B87" s="9" t="inlineStr">
         <is>
-          <t>XFR-10-72-120-1B</t>
+          <t>GYW-38C</t>
         </is>
       </c>
       <c r="C87" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D87" s="9" t="inlineStr">
         <is>
-          <t>XFR,10KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
         </is>
       </c>
       <c r="E87" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F87" s="10" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G87" s="10" t="inlineStr"/>
       <c r="H87" s="11" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B88" s="12" t="inlineStr">
         <is>
-          <t>ARR-10-LS</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C88" s="12" t="inlineStr">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="D88" s="12" t="inlineStr">
         <is>
-          <t>ARR,10kV,Line,Arrester Stations</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E88" s="12" t="inlineStr">
@@ -3098,22 +3098,22 @@
         </is>
       </c>
       <c r="F88" s="13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G88" s="13" t="inlineStr"/>
       <c r="H88" s="14" t="n">
-        <v>66.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B89" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C89" s="9" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="D89" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E89" s="9" t="inlineStr">
@@ -3136,28 +3136,28 @@
       </c>
       <c r="G89" s="10" t="inlineStr"/>
       <c r="H89" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B90" s="12" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>XFR-10-72-120-1B</t>
         </is>
       </c>
       <c r="C90" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D90" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>XFR,10KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E90" s="12" t="inlineStr">
@@ -3170,13 +3170,13 @@
       </c>
       <c r="G90" s="13" t="inlineStr"/>
       <c r="H90" s="14" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B91" s="9" t="inlineStr">
@@ -3200,22 +3200,22 @@
         </is>
       </c>
       <c r="F91" s="10" t="n">
-        <v>627</v>
+        <v>310</v>
       </c>
       <c r="G91" s="10" t="inlineStr"/>
       <c r="H91" s="11" t="n">
-        <v>1467.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B92" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C92" s="12" t="inlineStr">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="D92" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E92" s="12" t="inlineStr">
@@ -3234,22 +3234,22 @@
         </is>
       </c>
       <c r="F92" s="13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G92" s="13" t="inlineStr"/>
       <c r="H92" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B93" s="9" t="inlineStr">
         <is>
-          <t>POL-40-1</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C93" s="9" t="inlineStr">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="D93" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 1</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E93" s="9" t="inlineStr">
@@ -3272,23 +3272,634 @@
       </c>
       <c r="G93" s="10" t="inlineStr"/>
       <c r="H93" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="15" t="inlineStr">
+      <c r="A94" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B94" s="12" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C94" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D94" s="12" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E94" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F94" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" s="13" t="inlineStr"/>
+      <c r="H94" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B95" s="9" t="inlineStr">
+        <is>
+          <t>CND-S2</t>
+        </is>
+      </c>
+      <c r="C95" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D95" s="9" t="inlineStr">
+        <is>
+          <t>CND,Stirrup #2</t>
+        </is>
+      </c>
+      <c r="E95" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F95" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" s="10" t="inlineStr"/>
+      <c r="H95" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B96" s="12" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C96" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D96" s="12" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E96" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F96" s="13" t="n">
+        <v>334</v>
+      </c>
+      <c r="G96" s="13" t="inlineStr"/>
+      <c r="H96" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B97" s="9" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-2-S-X-C</t>
+        </is>
+      </c>
+      <c r="C97" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D97" s="9" t="inlineStr">
+        <is>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+        </is>
+      </c>
+      <c r="E97" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F97" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" s="10" t="inlineStr"/>
+      <c r="H97" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B98" s="12" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C98" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D98" s="12" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E98" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F98" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" s="13" t="inlineStr"/>
+      <c r="H98" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B99" s="9" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C99" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D99" s="9" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E99" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F99" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G99" s="10" t="inlineStr"/>
+      <c r="H99" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B100" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C100" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D100" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E100" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F100" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G100" s="13" t="inlineStr"/>
+      <c r="H100" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B101" s="9" t="inlineStr">
+        <is>
+          <t>XCO-15-100-7</t>
+        </is>
+      </c>
+      <c r="C101" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D101" s="9" t="inlineStr">
+        <is>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+        </is>
+      </c>
+      <c r="E101" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F101" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" s="10" t="inlineStr"/>
+      <c r="H101" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B102" s="12" t="inlineStr">
+        <is>
+          <t>XFR-10-72-120-1B</t>
+        </is>
+      </c>
+      <c r="C102" s="12" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D102" s="12" t="inlineStr">
+        <is>
+          <t>XFR,10KVA,7.2/12.4kVY,120/240,1BG</t>
+        </is>
+      </c>
+      <c r="E102" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F102" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" s="13" t="inlineStr"/>
+      <c r="H102" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B103" s="9" t="inlineStr">
+        <is>
+          <t>ARR-10-LS</t>
+        </is>
+      </c>
+      <c r="C103" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D103" s="9" t="inlineStr">
+        <is>
+          <t>ARR,10kV,Line,Arrester Stations</t>
+        </is>
+      </c>
+      <c r="E103" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F103" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" s="10" t="inlineStr"/>
+      <c r="H103" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B104" s="12" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F-C</t>
+        </is>
+      </c>
+      <c r="C104" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D104" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+        </is>
+      </c>
+      <c r="E104" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F104" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" s="13" t="inlineStr"/>
+      <c r="H104" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B105" s="9" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C105" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D105" s="9" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E105" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F105" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" s="10" t="inlineStr"/>
+      <c r="H105" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B106" s="12" t="inlineStr">
+        <is>
+          <t>CND-S2</t>
+        </is>
+      </c>
+      <c r="C106" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D106" s="12" t="inlineStr">
+        <is>
+          <t>CND,Stirrup #2</t>
+        </is>
+      </c>
+      <c r="E106" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F106" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" s="13" t="inlineStr"/>
+      <c r="H106" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B107" s="9" t="inlineStr">
+        <is>
+          <t>CON-10-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C107" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D107" s="9" t="inlineStr">
+        <is>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+        </is>
+      </c>
+      <c r="E107" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F107" s="10" t="n">
+        <v>627</v>
+      </c>
+      <c r="G107" s="10" t="inlineStr"/>
+      <c r="H107" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B108" s="12" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C108" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D108" s="12" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E108" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F108" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" s="13" t="inlineStr"/>
+      <c r="H108" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B109" s="9" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C109" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D109" s="9" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E109" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F109" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G109" s="10" t="inlineStr"/>
+      <c r="H109" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B110" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C110" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D110" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E110" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F110" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G110" s="13" t="inlineStr"/>
+      <c r="H110" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B111" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-1</t>
+        </is>
+      </c>
+      <c r="C111" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D111" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 1</t>
+        </is>
+      </c>
+      <c r="E111" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F111" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" s="10" t="inlineStr"/>
+      <c r="H111" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H94" s="16" t="n">
-        <v>10810.59</v>
+      <c r="H112" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A94:G94"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
@@ -3299,6 +3910,7 @@
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A112:G112"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>

--- a/generated_docs/WR_89734550_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89734550_WeekEnding_072725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I112"/>
+  <dimension ref="A2:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:47 PM</t>
+          <t>Report Generated On: 08/26/2025 10:00 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>13036.51</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P40</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +897,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +931,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +965,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +999,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1033,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="25">
@@ -1071,7 +1067,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="26">
@@ -1105,7 +1101,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="27">
@@ -1139,7 +1135,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="28">
@@ -1173,7 +1169,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="29">
@@ -1207,7 +1203,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="30">
@@ -1241,7 +1237,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="31">
@@ -1275,7 +1271,7 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="32">
@@ -1309,7 +1305,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="33">
@@ -1343,7 +1339,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="34">
@@ -1377,7 +1373,7 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="35">
@@ -1411,7 +1407,7 @@
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="36">
@@ -1445,7 +1441,7 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="37">
@@ -1479,7 +1475,7 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="38">
@@ -1513,7 +1509,7 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="39">
@@ -1547,7 +1543,7 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="40">
@@ -1581,7 +1577,7 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="41">
@@ -1615,7 +1611,7 @@
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="42">
@@ -1649,7 +1645,7 @@
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="43">
@@ -1683,7 +1679,7 @@
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="44">
@@ -1717,7 +1713,7 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="45">
@@ -1751,7 +1747,7 @@
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>0</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="46">
@@ -1785,7 +1781,7 @@
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="47">
@@ -1819,7 +1815,7 @@
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="48">
@@ -1829,7 +1825,7 @@
         </is>
       </c>
       <c r="H48" s="16" t="n">
-        <v>0</v>
+        <v>2225.919999999999</v>
       </c>
     </row>
     <row r="51">
@@ -1912,7 +1908,7 @@
       </c>
       <c r="G53" s="10" t="inlineStr"/>
       <c r="H53" s="11" t="n">
-        <v>0</v>
+        <v>217.53</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1942,7 @@
       </c>
       <c r="G54" s="13" t="inlineStr"/>
       <c r="H54" s="14" t="n">
-        <v>0</v>
+        <v>88.95999999999999</v>
       </c>
     </row>
     <row r="55">
@@ -1980,7 +1976,7 @@
       </c>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="56">
@@ -2014,7 +2010,7 @@
       </c>
       <c r="G56" s="13" t="inlineStr"/>
       <c r="H56" s="14" t="n">
-        <v>0</v>
+        <v>77.02</v>
       </c>
     </row>
     <row r="57">
@@ -2025,7 +2021,7 @@
       </c>
       <c r="B57" s="9" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C57" s="9" t="inlineStr">
@@ -2035,7 +2031,7 @@
       </c>
       <c r="D57" s="9" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E57" s="9" t="inlineStr">
@@ -2048,7 +2044,7 @@
       </c>
       <c r="G57" s="10" t="inlineStr"/>
       <c r="H57" s="11" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="58">
@@ -2059,7 +2055,7 @@
       </c>
       <c r="B58" s="12" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C58" s="12" t="inlineStr">
@@ -2069,20 +2065,20 @@
       </c>
       <c r="D58" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E58" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F58" s="13" t="n">
-        <v>1</v>
+        <v>456</v>
       </c>
       <c r="G58" s="13" t="inlineStr"/>
       <c r="H58" s="14" t="n">
-        <v>0</v>
+        <v>1067.04</v>
       </c>
     </row>
     <row r="59">
@@ -2093,7 +2089,7 @@
       </c>
       <c r="B59" s="9" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C59" s="9" t="inlineStr">
@@ -2103,20 +2099,20 @@
       </c>
       <c r="D59" s="9" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E59" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F59" s="10" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="G59" s="10" t="inlineStr"/>
       <c r="H59" s="11" t="n">
-        <v>0</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="60">
@@ -2127,7 +2123,7 @@
       </c>
       <c r="B60" s="12" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C60" s="12" t="inlineStr">
@@ -2137,7 +2133,7 @@
       </c>
       <c r="D60" s="12" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E60" s="12" t="inlineStr">
@@ -2150,7 +2146,7 @@
       </c>
       <c r="G60" s="13" t="inlineStr"/>
       <c r="H60" s="14" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61">
@@ -2161,7 +2157,7 @@
       </c>
       <c r="B61" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C61" s="9" t="inlineStr">
@@ -2171,7 +2167,7 @@
       </c>
       <c r="D61" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E61" s="9" t="inlineStr">
@@ -2184,7 +2180,7 @@
       </c>
       <c r="G61" s="10" t="inlineStr"/>
       <c r="H61" s="11" t="n">
-        <v>0</v>
+        <v>79.34999999999999</v>
       </c>
     </row>
     <row r="62">
@@ -2195,7 +2191,7 @@
       </c>
       <c r="B62" s="12" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-4-C-E1</t>
+          <t>SWI-15-CO1-100-H</t>
         </is>
       </c>
       <c r="C62" s="12" t="inlineStr">
@@ -2205,7 +2201,7 @@
       </c>
       <c r="D62" s="12" t="inlineStr">
         <is>
-          <t>EQL,1 Phase,#4,Sol,#4,Sol,100a Eq C/O</t>
+          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
         </is>
       </c>
       <c r="E62" s="12" t="inlineStr">
@@ -2218,7 +2214,7 @@
       </c>
       <c r="G62" s="13" t="inlineStr"/>
       <c r="H62" s="14" t="n">
-        <v>0</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="63">
@@ -2229,17 +2225,17 @@
       </c>
       <c r="B63" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>UGND-TAG-C</t>
         </is>
       </c>
       <c r="C63" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D63" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>UGND,TAG CABLE MARKER (WHITE),Cable</t>
         </is>
       </c>
       <c r="E63" s="9" t="inlineStr">
@@ -2248,11 +2244,11 @@
         </is>
       </c>
       <c r="F63" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" s="10" t="inlineStr"/>
       <c r="H63" s="11" t="n">
-        <v>0</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="64">
@@ -2263,17 +2259,17 @@
       </c>
       <c r="B64" s="12" t="inlineStr">
         <is>
-          <t>GYD-MPY</t>
+          <t>UPTM-SO-10-15</t>
         </is>
       </c>
       <c r="C64" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D64" s="12" t="inlineStr">
         <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
+          <t>UPTM,Shrink Outdoor,1/0,15kV</t>
         </is>
       </c>
       <c r="E64" s="12" t="inlineStr">
@@ -2286,7 +2282,7 @@
       </c>
       <c r="G64" s="13" t="inlineStr"/>
       <c r="H64" s="14" t="n">
-        <v>0</v>
+        <v>31.21</v>
       </c>
     </row>
     <row r="65">
@@ -2297,7 +2293,7 @@
       </c>
       <c r="B65" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>URSG-D-168</t>
         </is>
       </c>
       <c r="C65" s="9" t="inlineStr">
@@ -2307,7 +2303,7 @@
       </c>
       <c r="D65" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>URSG,Distr.1.68in OD</t>
         </is>
       </c>
       <c r="E65" s="9" t="inlineStr">
@@ -2320,7 +2316,7 @@
       </c>
       <c r="G65" s="10" t="inlineStr"/>
       <c r="H65" s="11" t="n">
-        <v>0</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="66">
@@ -2331,7 +2327,7 @@
       </c>
       <c r="B66" s="12" t="inlineStr">
         <is>
-          <t>GYW-38C</t>
+          <t>URSG-D-215</t>
         </is>
       </c>
       <c r="C66" s="12" t="inlineStr">
@@ -2341,20 +2337,20 @@
       </c>
       <c r="D66" s="12" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+          <t>URSG,Distr,2.15in OD</t>
         </is>
       </c>
       <c r="E66" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F66" s="13" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G66" s="13" t="inlineStr"/>
       <c r="H66" s="14" t="n">
-        <v>0</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="67">
@@ -2365,7 +2361,7 @@
       </c>
       <c r="B67" s="9" t="inlineStr">
         <is>
-          <t>PLD-EYE-C</t>
+          <t>URSR-3-DSO</t>
         </is>
       </c>
       <c r="C67" s="9" t="inlineStr">
@@ -2375,7 +2371,7 @@
       </c>
       <c r="D67" s="9" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
+          <t>URSR,3in,Dist Stand Off</t>
         </is>
       </c>
       <c r="E67" s="9" t="inlineStr">
@@ -2384,11 +2380,11 @@
         </is>
       </c>
       <c r="F67" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" s="10" t="inlineStr"/>
       <c r="H67" s="11" t="n">
-        <v>0</v>
+        <v>283.06</v>
       </c>
     </row>
     <row r="68">
@@ -2399,17 +2395,17 @@
       </c>
       <c r="B68" s="12" t="inlineStr">
         <is>
-          <t>SWI-15-CO1-100-H</t>
+          <t>XCO-27-100-8-C</t>
         </is>
       </c>
       <c r="C68" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
       <c r="E68" s="12" t="inlineStr">
@@ -2422,7 +2418,7 @@
       </c>
       <c r="G68" s="13" t="inlineStr"/>
       <c r="H68" s="14" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="69">
@@ -2433,7 +2429,7 @@
       </c>
       <c r="B69" s="9" t="inlineStr">
         <is>
-          <t>UGND-TAG-C</t>
+          <t>XFR-10-72-120-1B</t>
         </is>
       </c>
       <c r="C69" s="9" t="inlineStr">
@@ -2443,7 +2439,7 @@
       </c>
       <c r="D69" s="9" t="inlineStr">
         <is>
-          <t>UGND,TAG CABLE MARKER (WHITE),Cable</t>
+          <t>XFR,10KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E69" s="9" t="inlineStr">
@@ -2456,52 +2452,52 @@
       </c>
       <c r="G69" s="10" t="inlineStr"/>
       <c r="H69" s="11" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B70" s="12" t="inlineStr">
         <is>
-          <t>UPTM-SO-10-15</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C70" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D70" s="12" t="inlineStr">
         <is>
-          <t>UPTM,Shrink Outdoor,1/0,15kV</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E70" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F70" s="13" t="n">
-        <v>1</v>
+        <v>484</v>
       </c>
       <c r="G70" s="13" t="inlineStr"/>
       <c r="H70" s="14" t="n">
-        <v>0</v>
+        <v>1132.56</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B71" s="9" t="inlineStr">
         <is>
-          <t>URSG-D-168</t>
+          <t>ANC-DHM-10-84-D1</t>
         </is>
       </c>
       <c r="C71" s="9" t="inlineStr">
@@ -2511,7 +2507,7 @@
       </c>
       <c r="D71" s="9" t="inlineStr">
         <is>
-          <t>URSG,Distr.1.68in OD</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
         </is>
       </c>
       <c r="E71" s="9" t="inlineStr">
@@ -2524,18 +2520,18 @@
       </c>
       <c r="G71" s="10" t="inlineStr"/>
       <c r="H71" s="11" t="n">
-        <v>0</v>
+        <v>217.53</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B72" s="12" t="inlineStr">
         <is>
-          <t>URSG-D-215</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C72" s="12" t="inlineStr">
@@ -2545,7 +2541,7 @@
       </c>
       <c r="D72" s="12" t="inlineStr">
         <is>
-          <t>URSG,Distr,2.15in OD</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E72" s="12" t="inlineStr">
@@ -2558,18 +2554,18 @@
       </c>
       <c r="G72" s="13" t="inlineStr"/>
       <c r="H72" s="14" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B73" s="9" t="inlineStr">
         <is>
-          <t>URSR-3-DSO</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C73" s="9" t="inlineStr">
@@ -2579,7 +2575,7 @@
       </c>
       <c r="D73" s="9" t="inlineStr">
         <is>
-          <t>URSR,3in,Dist Stand Off</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E73" s="9" t="inlineStr">
@@ -2592,18 +2588,18 @@
       </c>
       <c r="G73" s="10" t="inlineStr"/>
       <c r="H73" s="11" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B74" s="12" t="inlineStr">
         <is>
-          <t>XCO-27-100-8-C</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C74" s="12" t="inlineStr">
@@ -2613,41 +2609,41 @@
       </c>
       <c r="D74" s="12" t="inlineStr">
         <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E74" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F74" s="13" t="n">
-        <v>1</v>
+        <v>677</v>
       </c>
       <c r="G74" s="13" t="inlineStr"/>
       <c r="H74" s="14" t="n">
-        <v>0</v>
+        <v>1584.18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B75" s="9" t="inlineStr">
         <is>
-          <t>XFR-10-72-120-1B</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C75" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D75" s="9" t="inlineStr">
         <is>
-          <t>XFR,10KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E75" s="9" t="inlineStr">
@@ -2660,18 +2656,18 @@
       </c>
       <c r="G75" s="10" t="inlineStr"/>
       <c r="H75" s="11" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B76" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C76" s="12" t="inlineStr">
@@ -2681,31 +2677,31 @@
       </c>
       <c r="D76" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E76" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F76" s="13" t="n">
-        <v>484</v>
+        <v>1</v>
       </c>
       <c r="G76" s="13" t="inlineStr"/>
       <c r="H76" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B77" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C77" s="9" t="inlineStr">
@@ -2715,7 +2711,7 @@
       </c>
       <c r="D77" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E77" s="9" t="inlineStr">
@@ -2724,11 +2720,11 @@
         </is>
       </c>
       <c r="F77" s="10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G77" s="10" t="inlineStr"/>
       <c r="H77" s="11" t="n">
-        <v>0</v>
+        <v>79.34999999999999</v>
       </c>
     </row>
     <row r="78">
@@ -2739,7 +2735,7 @@
       </c>
       <c r="B78" s="12" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-D1</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C78" s="12" t="inlineStr">
@@ -2749,7 +2745,7 @@
       </c>
       <c r="D78" s="12" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E78" s="12" t="inlineStr">
@@ -2762,7 +2758,7 @@
       </c>
       <c r="G78" s="13" t="inlineStr"/>
       <c r="H78" s="14" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="79">
@@ -2773,17 +2769,17 @@
       </c>
       <c r="B79" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>XFR-10-72-120-1B</t>
         </is>
       </c>
       <c r="C79" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D79" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>XFR,10KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E79" s="9" t="inlineStr">
@@ -2796,18 +2792,18 @@
       </c>
       <c r="G79" s="10" t="inlineStr"/>
       <c r="H79" s="11" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B80" s="12" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C80" s="12" t="inlineStr">
@@ -2817,31 +2813,31 @@
       </c>
       <c r="D80" s="12" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E80" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F80" s="13" t="n">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="G80" s="13" t="inlineStr"/>
       <c r="H80" s="14" t="n">
-        <v>0</v>
+        <v>725.4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B81" s="9" t="inlineStr">
         <is>
-          <t>CND-S2</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C81" s="9" t="inlineStr">
@@ -2851,7 +2847,7 @@
       </c>
       <c r="D81" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E81" s="9" t="inlineStr">
@@ -2864,18 +2860,18 @@
       </c>
       <c r="G81" s="10" t="inlineStr"/>
       <c r="H81" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B82" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-1-B-REEL</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C82" s="12" t="inlineStr">
@@ -2885,31 +2881,31 @@
       </c>
       <c r="D82" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E82" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F82" s="13" t="n">
-        <v>677</v>
+        <v>1</v>
       </c>
       <c r="G82" s="13" t="inlineStr"/>
       <c r="H82" s="14" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B83" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
+          <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
       <c r="C83" s="9" t="inlineStr">
@@ -2919,31 +2915,31 @@
       </c>
       <c r="D83" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
       <c r="E83" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F83" s="10" t="n">
-        <v>1</v>
+        <v>334</v>
       </c>
       <c r="G83" s="10" t="inlineStr"/>
       <c r="H83" s="11" t="n">
-        <v>0</v>
+        <v>781.5599999999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B84" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
       <c r="C84" s="12" t="inlineStr">
@@ -2953,7 +2949,7 @@
       </c>
       <c r="D84" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
       <c r="E84" s="12" t="inlineStr">
@@ -2966,18 +2962,18 @@
       </c>
       <c r="G84" s="13" t="inlineStr"/>
       <c r="H84" s="14" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B85" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C85" s="9" t="inlineStr">
@@ -2987,7 +2983,7 @@
       </c>
       <c r="D85" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E85" s="9" t="inlineStr">
@@ -2996,22 +2992,22 @@
         </is>
       </c>
       <c r="F85" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85" s="10" t="inlineStr"/>
       <c r="H85" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B86" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C86" s="12" t="inlineStr">
@@ -3021,7 +3017,7 @@
       </c>
       <c r="D86" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E86" s="12" t="inlineStr">
@@ -3034,52 +3030,52 @@
       </c>
       <c r="G86" s="13" t="inlineStr"/>
       <c r="H86" s="14" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B87" s="9" t="inlineStr">
         <is>
-          <t>GYW-38C</t>
+          <t>XFR-10-72-120-1B</t>
         </is>
       </c>
       <c r="C87" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D87" s="9" t="inlineStr">
         <is>
-          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+          <t>XFR,10KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E87" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F87" s="10" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G87" s="10" t="inlineStr"/>
       <c r="H87" s="11" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B88" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>ARR-10-LS</t>
         </is>
       </c>
       <c r="C88" s="12" t="inlineStr">
@@ -3089,7 +3085,7 @@
       </c>
       <c r="D88" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>ARR,10kV,Line,Arrester Stations</t>
         </is>
       </c>
       <c r="E88" s="12" t="inlineStr">
@@ -3098,22 +3094,22 @@
         </is>
       </c>
       <c r="F88" s="13" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G88" s="13" t="inlineStr"/>
       <c r="H88" s="14" t="n">
-        <v>0</v>
+        <v>66.72</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B89" s="9" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>BKT-AC18-F-C</t>
         </is>
       </c>
       <c r="C89" s="9" t="inlineStr">
@@ -3123,7 +3119,7 @@
       </c>
       <c r="D89" s="9" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
       <c r="E89" s="9" t="inlineStr">
@@ -3136,28 +3132,28 @@
       </c>
       <c r="G89" s="10" t="inlineStr"/>
       <c r="H89" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B90" s="12" t="inlineStr">
         <is>
-          <t>XFR-10-72-120-1B</t>
+          <t>CND-S2</t>
         </is>
       </c>
       <c r="C90" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D90" s="12" t="inlineStr">
         <is>
-          <t>XFR,10KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>CND,Stirrup #2</t>
         </is>
       </c>
       <c r="E90" s="12" t="inlineStr">
@@ -3170,13 +3166,13 @@
       </c>
       <c r="G90" s="13" t="inlineStr"/>
       <c r="H90" s="14" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B91" s="9" t="inlineStr">
@@ -3200,22 +3196,22 @@
         </is>
       </c>
       <c r="F91" s="10" t="n">
-        <v>310</v>
+        <v>627</v>
       </c>
       <c r="G91" s="10" t="inlineStr"/>
       <c r="H91" s="11" t="n">
-        <v>0</v>
+        <v>1467.18</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B92" s="12" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C92" s="12" t="inlineStr">
@@ -3225,7 +3221,7 @@
       </c>
       <c r="D92" s="12" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E92" s="12" t="inlineStr">
@@ -3234,22 +3230,22 @@
         </is>
       </c>
       <c r="F92" s="13" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G92" s="13" t="inlineStr"/>
       <c r="H92" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B93" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>POL-40-1</t>
         </is>
       </c>
       <c r="C93" s="9" t="inlineStr">
@@ -3259,7 +3255,7 @@
       </c>
       <c r="D93" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>Pole,40ft,Class 1</t>
         </is>
       </c>
       <c r="E93" s="9" t="inlineStr">
@@ -3272,634 +3268,23 @@
       </c>
       <c r="G93" s="10" t="inlineStr"/>
       <c r="H93" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="12" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B94" s="12" t="inlineStr">
-        <is>
-          <t>CND-HLC2</t>
-        </is>
-      </c>
-      <c r="C94" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D94" s="12" t="inlineStr">
-        <is>
-          <t>CND,Hot Line clamp #6-#2</t>
-        </is>
-      </c>
-      <c r="E94" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F94" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G94" s="13" t="inlineStr"/>
-      <c r="H94" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="9" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B95" s="9" t="inlineStr">
-        <is>
-          <t>CND-S2</t>
-        </is>
-      </c>
-      <c r="C95" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D95" s="9" t="inlineStr">
-        <is>
-          <t>CND,Stirrup #2</t>
-        </is>
-      </c>
-      <c r="E95" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F95" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G95" s="10" t="inlineStr"/>
-      <c r="H95" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="12" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B96" s="12" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C96" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D96" s="12" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E96" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F96" s="13" t="n">
-        <v>334</v>
-      </c>
-      <c r="G96" s="13" t="inlineStr"/>
-      <c r="H96" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="9" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B97" s="9" t="inlineStr">
-        <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
-        </is>
-      </c>
-      <c r="C97" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D97" s="9" t="inlineStr">
-        <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
-        </is>
-      </c>
-      <c r="E97" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F97" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G97" s="10" t="inlineStr"/>
-      <c r="H97" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="12" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B98" s="12" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C98" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D98" s="12" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E98" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F98" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G98" s="13" t="inlineStr"/>
-      <c r="H98" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="9" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B99" s="9" t="inlineStr">
-        <is>
-          <t>GND-MD</t>
-        </is>
-      </c>
-      <c r="C99" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D99" s="9" t="inlineStr">
-        <is>
-          <t>GND,Wire Mldg Only</t>
-        </is>
-      </c>
-      <c r="E99" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F99" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G99" s="10" t="inlineStr"/>
-      <c r="H99" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="12" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B100" s="12" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C100" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D100" s="12" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E100" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F100" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="G100" s="13" t="inlineStr"/>
-      <c r="H100" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="9" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B101" s="9" t="inlineStr">
-        <is>
-          <t>XCO-15-100-7</t>
-        </is>
-      </c>
-      <c r="C101" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D101" s="9" t="inlineStr">
-        <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
-        </is>
-      </c>
-      <c r="E101" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F101" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" s="10" t="inlineStr"/>
-      <c r="H101" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="12" t="inlineStr">
-        <is>
-          <t>Point 09</t>
-        </is>
-      </c>
-      <c r="B102" s="12" t="inlineStr">
-        <is>
-          <t>XFR-10-72-120-1B</t>
-        </is>
-      </c>
-      <c r="C102" s="12" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D102" s="12" t="inlineStr">
-        <is>
-          <t>XFR,10KVA,7.2/12.4kVY,120/240,1BG</t>
-        </is>
-      </c>
-      <c r="E102" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F102" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G102" s="13" t="inlineStr"/>
-      <c r="H102" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="9" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B103" s="9" t="inlineStr">
-        <is>
-          <t>ARR-10-LS</t>
-        </is>
-      </c>
-      <c r="C103" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D103" s="9" t="inlineStr">
-        <is>
-          <t>ARR,10kV,Line,Arrester Stations</t>
-        </is>
-      </c>
-      <c r="E103" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F103" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G103" s="10" t="inlineStr"/>
-      <c r="H103" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="12" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B104" s="12" t="inlineStr">
-        <is>
-          <t>BKT-AC18-F-C</t>
-        </is>
-      </c>
-      <c r="C104" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D104" s="12" t="inlineStr">
-        <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
-        </is>
-      </c>
-      <c r="E104" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F104" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G104" s="13" t="inlineStr"/>
-      <c r="H104" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="9" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B105" s="9" t="inlineStr">
-        <is>
-          <t>CND-HLC2</t>
-        </is>
-      </c>
-      <c r="C105" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D105" s="9" t="inlineStr">
-        <is>
-          <t>CND,Hot Line clamp #6-#2</t>
-        </is>
-      </c>
-      <c r="E105" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F105" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G105" s="10" t="inlineStr"/>
-      <c r="H105" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="12" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B106" s="12" t="inlineStr">
-        <is>
-          <t>CND-S2</t>
-        </is>
-      </c>
-      <c r="C106" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D106" s="12" t="inlineStr">
-        <is>
-          <t>CND,Stirrup #2</t>
-        </is>
-      </c>
-      <c r="E106" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F106" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G106" s="13" t="inlineStr"/>
-      <c r="H106" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="9" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B107" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-1-B-REEL</t>
-        </is>
-      </c>
-      <c r="C107" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D107" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
-        </is>
-      </c>
-      <c r="E107" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F107" s="10" t="n">
-        <v>627</v>
-      </c>
-      <c r="G107" s="10" t="inlineStr"/>
-      <c r="H107" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="12" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B108" s="12" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C108" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D108" s="12" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E108" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F108" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G108" s="13" t="inlineStr"/>
-      <c r="H108" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="9" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B109" s="9" t="inlineStr">
-        <is>
-          <t>GND-MD</t>
-        </is>
-      </c>
-      <c r="C109" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D109" s="9" t="inlineStr">
-        <is>
-          <t>GND,Wire Mldg Only</t>
-        </is>
-      </c>
-      <c r="E109" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F109" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G109" s="10" t="inlineStr"/>
-      <c r="H109" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="12" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B110" s="12" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C110" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D110" s="12" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E110" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F110" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="G110" s="13" t="inlineStr"/>
-      <c r="H110" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B111" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-1</t>
-        </is>
-      </c>
-      <c r="C111" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D111" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 1</t>
-        </is>
-      </c>
-      <c r="E111" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F111" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G111" s="10" t="inlineStr"/>
-      <c r="H111" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="15" t="inlineStr">
+      <c r="A94" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H112" s="16" t="n">
-        <v>0</v>
+      <c r="H94" s="16" t="n">
+        <v>10810.59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A94:G94"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
@@ -3910,7 +3295,6 @@
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A112:G112"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
